--- a/ManageSYS/templates/生产/再造梗丝生产日报.xlsx
+++ b/ManageSYS/templates/生产/再造梗丝生产日报.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">               班组   
      种类</t>
@@ -59,30 +59,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1、统计截止日期为次日8:30，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>本日早班为丙班</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,。
-2、本日共计原料投入30.248吨，回填液消耗14.357吨。
-3、本日共计打包2号配方梗丝5.925吨，计划2号配方产量为50吨，完成计划产量的11.85%。</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>生产日报表</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -600,27 +576,38 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -629,17 +616,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -785,7 +761,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -813,17 +789,17 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -831,7 +807,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -855,23 +831,14 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1220,8 +1187,8 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1234,7 +1201,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1243,28 +1210,28 @@
       <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="C2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
@@ -1320,7 +1287,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="8"/>
@@ -1333,7 +1300,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="8"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1347,30 +1314,30 @@
       <c r="A10" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F10" s="1" t="e">
+        <f>AVERAGE(C10:E10)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
-      <c r="B11" s="9"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
-        <f t="shared" si="0"/>
+        <f>C11+D11+E11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22"/>
-      <c r="B12" s="28" t="s">
-        <v>16</v>
+      <c r="B12" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="1">
         <f>C10*C11</f>
@@ -1391,7 +1358,7 @@
     </row>
     <row r="13" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22"/>
-      <c r="B13" s="10"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1402,7 +1369,7 @@
     </row>
     <row r="14" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22"/>
-      <c r="B14" s="10"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1413,7 +1380,7 @@
     </row>
     <row r="15" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="23"/>
-      <c r="B15" s="10"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1426,9 +1393,7 @@
       <c r="A16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>9</v>
-      </c>
+      <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
@@ -1436,7 +1401,7 @@
     </row>
     <row r="17" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>

--- a/ManageSYS/templates/生产/再造梗丝生产日报.xlsx
+++ b/ManageSYS/templates/生产/再造梗丝生产日报.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftWare\ManageSYS\ManageSYS\templates\生产\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030B3CCB-5A1F-4791-A159-B479C942EC02}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19395" windowHeight="8325" tabRatio="765"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日报" sheetId="33" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -40,21 +46,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>一、原料
-（k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>g）</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>二、辅料</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -83,14 +74,19 @@
   </si>
   <si>
     <t>当班总产量（kg)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">一、原料
+</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -253,6 +249,12 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -761,7 +763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -789,19 +791,19 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -819,9 +821,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -840,26 +839,35 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="1" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="2" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="4" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="5" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="6" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="7" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="8" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="9" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="10" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="11" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="12" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="15" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="16" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="17" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="18" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="1" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="2" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="3" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="4" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="5" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="6" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="7" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="8" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="9" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="10" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="11" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="12" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="13" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="14" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="15" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="16" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="17" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="18" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="19" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="20" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="21" builtinId="17" customBuiltin="1"/>
@@ -874,15 +882,15 @@
     <cellStyle name="解释性文本" xfId="29" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="30" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="31" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="33" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="34" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="35" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="36" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="37" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="38" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="39" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="40" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="32" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="33" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="34" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="35" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="36" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="37" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="41" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -890,6 +898,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -938,7 +949,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -971,9 +982,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1006,6 +1034,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1181,19 +1226,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="11" customWidth="1"/>
     <col min="2" max="2" width="29.875" customWidth="1"/>
     <col min="3" max="5" width="11.625" customWidth="1"/>
     <col min="6" max="6" width="15.25" customWidth="1"/>
@@ -1201,7 +1246,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1210,32 +1255,32 @@
       <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
-    </row>
-    <row r="3" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
-        <v>7</v>
+      <c r="A4" s="27" t="s">
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -1254,7 +1299,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="6"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1265,7 +1310,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="6"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1276,7 +1321,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="7"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1287,8 +1332,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>8</v>
+      <c r="A8" s="26" t="s">
+        <v>7</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="2"/>
@@ -1300,7 +1345,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="8"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1311,7 +1356,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
@@ -1324,7 +1369,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="8"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1335,9 +1380,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
         <f>C10*C11</f>
@@ -1357,7 +1402,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="8"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1368,7 +1413,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="8"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1379,7 +1424,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="23"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="8"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1401,7 +1446,7 @@
     </row>
     <row r="17" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
